--- a/Pointer/方案比较.xlsx
+++ b/Pointer/方案比较.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,14 @@
   </si>
   <si>
     <t>空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baggy Bounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoftBound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +498,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -586,47 +594,60 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="10:10" x14ac:dyDescent="0.2">

--- a/Pointer/方案比较.xlsx
+++ b/Pointer/方案比较.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,29 @@
   </si>
   <si>
     <t>SoftBound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加专用的硬件部件
+增加专用指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件中保存数据类型，数据通路中的所有数据都带着类型，指针会被标记为指针类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐式检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型寄存器，以及扩展的数据通路
+新指令的支持
+处理硬件数据类型的功能单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设指针边界都按2的幂次对齐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -508,14 +534,14 @@
     <col min="3" max="3" width="31.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="38.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +557,7 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -550,7 +576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -566,7 +592,7 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
@@ -585,12 +611,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -598,35 +624,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -637,7 +678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -645,9 +686,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="10:10" x14ac:dyDescent="0.2">

--- a/Pointer/方案比较.xlsx
+++ b/Pointer/方案比较.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,7 +524,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,9 +663,6 @@
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">

--- a/Pointer/方案比较.xlsx
+++ b/Pointer/方案比较.xlsx
@@ -524,7 +524,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
